--- a/data/trans_camb/P1421-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1421-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.729806051584658</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.226539142414739</v>
+        <v>3.226539142414741</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.657849990478665</v>
@@ -664,7 +664,7 @@
         <v>-0.543000566304936</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.660309304572547</v>
+        <v>6.660309304572549</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.53387331294433</v>
+        <v>-4.454980536810974</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.801192116494286</v>
+        <v>-3.741149914563707</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4125691816494993</v>
+        <v>0.3792167236352089</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.430444085741622</v>
+        <v>-1.833789627576861</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.137457508403905</v>
+        <v>-1.328505454886399</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.969388413291862</v>
+        <v>6.671444801990903</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.507339694782894</v>
+        <v>-2.432412668190184</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.021295837793944</v>
+        <v>-2.142559377197571</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.342575856509791</v>
+        <v>4.443384127793905</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.7805406851107649</v>
+        <v>-0.7128210673700333</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.03462271264386092</v>
+        <v>0.1115635941305493</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.403859916201552</v>
+        <v>6.457405602793564</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.873861640466506</v>
+        <v>2.881913520148573</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.986199262112864</v>
+        <v>2.885598830565914</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>12.69275399995818</v>
+        <v>12.47129102925549</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3713174090384989</v>
+        <v>0.3857648613611697</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8586453267687267</v>
+        <v>0.8575079083427003</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.721330942742579</v>
+        <v>8.807119956664073</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4226182769261777</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.7882932375875371</v>
+        <v>0.7882932375875374</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1069090738926663</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.810903368853014</v>
+        <v>-0.8086455829484078</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6626025722589148</v>
+        <v>-0.6903401960387765</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.026651006798216</v>
+        <v>0.03074752296819252</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2015930774043941</v>
+        <v>-0.2486299637019237</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1552834649243485</v>
+        <v>-0.1809698569886458</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9180250660450712</v>
+        <v>0.9078599864482944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4085848082368415</v>
+        <v>-0.4063166718427945</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3123219205646423</v>
+        <v>-0.3450790082027317</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.695634796955845</v>
+        <v>0.7141965812620333</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2275493211726676</v>
+        <v>-0.1936756303896298</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02448279333849071</v>
+        <v>0.06948875915878414</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.993854774941062</v>
+        <v>2.12750386068974</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5784998153980572</v>
+        <v>0.5481895811929548</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6389073904192736</v>
+        <v>0.5839049164911021</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.636310190885965</v>
+        <v>2.393125680996525</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07829908150968122</v>
+        <v>0.08594517746038241</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2069423839500599</v>
+        <v>0.1869480723277901</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.948233883083039</v>
+        <v>1.997296007889009</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.3137903956240331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.935848250543668</v>
+        <v>1.935848250543667</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.888277012915068</v>
@@ -869,7 +869,7 @@
         <v>-0.5224809437059545</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.153235168476228</v>
+        <v>4.15323516847623</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.176143522633848</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.632032142700865</v>
+        <v>-1.718077784952831</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.29899755861744</v>
+        <v>-1.278529838542169</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7481707497983818</v>
+        <v>0.6272928603152188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.835756648380938</v>
+        <v>-3.954584445508508</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.513028222177811</v>
+        <v>-2.462525738554072</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.901770255964885</v>
+        <v>1.986678777381096</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.334243477728362</v>
+        <v>-2.322900835465481</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.38300222499534</v>
+        <v>-1.533171960967356</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.057622374828702</v>
+        <v>2.018599480652956</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1427157862882086</v>
+        <v>0.03809146632197451</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6299176389323748</v>
+        <v>0.6584316455102315</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.389184458982214</v>
+        <v>3.401184779373764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06509001032040965</v>
+        <v>-0.0178293295258773</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.635109303248549</v>
+        <v>1.767763865131078</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.142251133714423</v>
+        <v>6.258250541700717</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.08690375111087045</v>
+        <v>-0.09196727430644915</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9949545874734002</v>
+        <v>0.9720988287435262</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.607310798215407</v>
+        <v>4.632737616238722</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.224306107439735</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.383798203287692</v>
+        <v>1.383798203287691</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2978303502556148</v>
@@ -974,7 +974,7 @@
         <v>-0.08240882105830503</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6550731044549601</v>
+        <v>0.6550731044549604</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3058116981876142</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8202074283394388</v>
+        <v>-0.8411234534914774</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6698504033224253</v>
+        <v>-0.7090360346355533</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3306196754227934</v>
+        <v>0.2139665106390768</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5199975567010415</v>
+        <v>-0.5284967050896595</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3381323283333531</v>
+        <v>-0.3322697088471529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2460398826825768</v>
+        <v>0.2648487681670272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.519104770342611</v>
+        <v>-0.5206908381903125</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3139140370559185</v>
+        <v>-0.3363720190331038</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4485848281141868</v>
+        <v>0.4469937565243791</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3067110381651224</v>
+        <v>0.2201494624580297</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7730961907936323</v>
+        <v>0.7918403164886061</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.658779712088159</v>
+        <v>3.634543590617307</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.02032857796897849</v>
+        <v>0.01603323586438943</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.323327144634619</v>
+        <v>0.342937166528827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.162183228395355</v>
+        <v>1.20200561412834</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.02073172460772128</v>
+        <v>-0.02865167694999778</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3211495139720079</v>
+        <v>0.2901303741803724</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.424632110483277</v>
+        <v>1.439103590068059</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.7428665006931435</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.444303492288795</v>
+        <v>5.444303492288794</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.1034886436107954</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.616144420119397</v>
+        <v>-1.615991315728332</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.458603525399383</v>
+        <v>-2.560909350429687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008366090263093961</v>
+        <v>-0.06169621168365254</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.875685509911812</v>
+        <v>-1.653780267425951</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.696695203680454</v>
+        <v>-2.472864703620978</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.28466282133855</v>
+        <v>3.437802041500404</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.247036652627387</v>
+        <v>-1.296436966339692</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.06481134339231</v>
+        <v>-2.089367013294185</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.113694667626716</v>
+        <v>2.18851721916227</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7502836667692629</v>
+        <v>0.8028693389022781</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.4177345933740765</v>
+        <v>-0.3080236509214466</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.974426601832712</v>
+        <v>2.984634577847235</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.994660888726177</v>
+        <v>2.020163307033176</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9190506565603989</v>
+        <v>1.257238599238388</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.429675164603679</v>
+        <v>7.445147030137241</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.067011953052126</v>
+        <v>1.049064198512019</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.01559571022457321</v>
+        <v>-0.06463684251661496</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.604952177708277</v>
+        <v>4.756754715006735</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5834369014468076</v>
+        <v>-0.6070268998667343</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8441519569464754</v>
+        <v>-0.8641295806154713</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.0582244105641151</v>
+        <v>-0.06487810715268805</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3721482305711057</v>
+        <v>-0.3477864511625362</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5226511807706041</v>
+        <v>-0.5025357853864537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5990817181221092</v>
+        <v>0.6778370696664577</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3410185072242794</v>
+        <v>-0.3486193376322375</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5721975291222114</v>
+        <v>-0.5725642961464703</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5566857630903933</v>
+        <v>0.588851883861282</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4872096979413054</v>
+        <v>0.5071825060762449</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1064894792288904</v>
+        <v>-0.01363409596134518</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.878358260318829</v>
+        <v>1.774528914245596</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6088248829040681</v>
+        <v>0.5890410897597157</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2926936318306348</v>
+        <v>0.4054655853514054</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.381768097805121</v>
+        <v>2.461369731922505</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4011433741870672</v>
+        <v>0.4199396962983811</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.002723249544927525</v>
+        <v>-0.02037557910907757</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.74012455344639</v>
+        <v>1.907566002803577</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.373039120764892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.71977458401553</v>
+        <v>1.719774584015531</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-2.80602832876713</v>
@@ -1297,7 +1297,7 @@
         <v>-4.236289687627692</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.243404979277841</v>
+        <v>3.243404979277838</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-2.613216373992058</v>
@@ -1306,7 +1306,7 @@
         <v>-2.994667910030016</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.70110988973629</v>
+        <v>2.701109889736287</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.359508630097313</v>
+        <v>-4.939696196139099</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.694118898727769</v>
+        <v>-4.462287858751076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.6731394259634904</v>
+        <v>-0.7107285163410774</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.380974148614049</v>
+        <v>-6.341068787553271</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.075183812406397</v>
+        <v>-8.250417428998464</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.3274029476083187</v>
+        <v>-0.6595423397605391</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.675122307740589</v>
+        <v>-4.433442925197519</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.97013817696608</v>
+        <v>-4.85737414262969</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4886625459342366</v>
+        <v>0.6286910291505697</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.358538311499154</v>
+        <v>-1.314366429248948</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.7084629009294128</v>
+        <v>-0.5643314754625939</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.85162857847381</v>
+        <v>3.945253798447674</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9615873335153319</v>
+        <v>0.7392721403320239</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.21110689325466</v>
+        <v>-1.24581054240151</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.487913322441736</v>
+        <v>6.837991668347093</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.8099111723711684</v>
+        <v>-0.7001967580486818</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.321769479637286</v>
+        <v>-1.066209326221004</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.545680614128856</v>
+        <v>4.726932827478863</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.7340623911052835</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.531985264068307</v>
+        <v>0.5319852640683073</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3404942869847585</v>
@@ -1402,7 +1402,7 @@
         <v>-0.5140477100184623</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3935672546496495</v>
+        <v>0.3935672546496492</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4839231443589833</v>
@@ -1411,7 +1411,7 @@
         <v>-0.5545614690599954</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5001995258063939</v>
+        <v>0.5001995258063935</v>
       </c>
     </row>
     <row r="26">
@@ -1425,28 +1425,28 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9397541129688287</v>
+        <v>-0.9302713838103716</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1634900420071494</v>
+        <v>-0.180664974665684</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6103133241929886</v>
+        <v>-0.6171889399572071</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7347985963298292</v>
+        <v>-0.7418953037292365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.05484775168748773</v>
+        <v>-0.07353644880408981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6861463197573637</v>
+        <v>-0.6892198894488093</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.744314609345692</v>
+        <v>-0.730521232943886</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.06053392394599155</v>
+        <v>0.09650001131931381</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3985821458345557</v>
+        <v>-0.3862405034488792</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1878689244305876</v>
+        <v>-0.08055056095243932</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.853127073830836</v>
+        <v>1.945007429159305</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.17039089312353</v>
+        <v>0.1527555869474548</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.143935204417255</v>
+        <v>-0.1518056952329236</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.048600657043631</v>
+        <v>1.157513193189477</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1569387829301357</v>
+        <v>-0.1470444506265307</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2658712803596694</v>
+        <v>-0.2321187211760286</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.052609952809935</v>
+        <v>1.252228103419205</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.007061082255682</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.994826696096611</v>
+        <v>1.99482669609661</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.5481931750558735</v>
@@ -1511,7 +1511,7 @@
         <v>-0.3629327657537089</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>5.543632974882922</v>
+        <v>5.543632974882923</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.8662049354220901</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.884082209457599</v>
+        <v>-1.873006316786824</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.681866732635713</v>
+        <v>-1.761010787638429</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.046185417428545</v>
+        <v>1.133762759814351</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.600892769251443</v>
+        <v>-1.67466369033734</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.551833954591653</v>
+        <v>-1.567414381115495</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.440866809480921</v>
+        <v>4.31295940753775</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.502158054800993</v>
+        <v>-1.516827329763458</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.322718521896041</v>
+        <v>-1.376146431238511</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.978039023913238</v>
+        <v>3.182138259424219</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.5710126121708724</v>
+        <v>-0.5115086423028523</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.3364280728465112</v>
+        <v>-0.3775041348621829</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.925175874050976</v>
+        <v>2.989737522015137</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5522534678500114</v>
+        <v>0.5708858392095774</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.83809700879605</v>
+        <v>0.6862346053658444</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.837424904604615</v>
+        <v>6.729493572536819</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.2158446938299979</v>
+        <v>-0.2294509263708783</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03966456137213702</v>
+        <v>-0.0361051581378969</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.580053924333461</v>
+        <v>4.653324583146391</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4146265228922778</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.8213087282874809</v>
+        <v>0.8213087282874807</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.09417099030241939</v>
@@ -1616,7 +1616,7 @@
         <v>-0.062346157375526</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9523092057187013</v>
+        <v>0.9523092057187016</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2088826756310598</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6595900781357996</v>
+        <v>-0.6761068683923099</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.591474829358226</v>
+        <v>-0.6069120371673732</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3469968627212012</v>
+        <v>0.3997127646540478</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2573705672014835</v>
+        <v>-0.2617062685241393</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2380886491133584</v>
+        <v>-0.2392336163746142</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6795289701698627</v>
+        <v>0.6752506159236953</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3338431683744945</v>
+        <v>-0.3401581302888296</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2928202848365122</v>
+        <v>-0.2982568720298259</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6589570635146693</v>
+        <v>0.6980202756724508</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2753162297025218</v>
+        <v>-0.2545521139848638</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1452218391158417</v>
+        <v>-0.1735727638002143</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.370579240945687</v>
+        <v>1.465032115811213</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.09958156946235021</v>
+        <v>0.1064389368831121</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1584888286292794</v>
+        <v>0.1289072068475927</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.306776508441376</v>
+        <v>1.306152829312147</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.05547095890630248</v>
+        <v>-0.05802683728533833</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.01135525194352455</v>
+        <v>-0.009255811960598768</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.225656394803672</v>
+        <v>1.224139099874561</v>
       </c>
     </row>
     <row r="34">
